--- a/67321.xlsx
+++ b/67321.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA53EE9-6844-E34A-8D76-E5C98546AD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E975AAB-92FB-2C4F-9D9E-031394884780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10160" yWindow="7800" windowWidth="27440" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
+    <workbookView xWindow="2800" yWindow="5560" windowWidth="27440" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>Accuracy(67321)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,32 +209,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC12942-6A22-6943-9F45-FF291F117E2B}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -559,106 +563,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>74.163840790727605</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>95.123913938170503</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>97.690601535993395</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>97.3029684168079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
         <v>69.733702040089099</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
         <v>97.690601535993395</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
         <v>93.442140284043703</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
         <v>94.815248890503696</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+    <row r="11" spans="1:3" ht="17" thickBot="1">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="9">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
         <v>97.26022888</v>
       </c>
     </row>

--- a/67321.xlsx
+++ b/67321.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E975AAB-92FB-2C4F-9D9E-031394884780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66611D4-77A9-864C-98A5-A837BF9D10F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="5560" windowWidth="27440" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
+    <workbookView xWindow="14960" yWindow="9700" windowWidth="21560" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+ lag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1+PCA (5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,15 +554,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC12942-6A22-6943-9F45-FF291F117E2B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>69.733702040089099</v>
+        <v>92.061861873820902</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -638,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>97.690601535993395</v>
+        <v>69.733702040089099</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -649,10 +653,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>93.442140284043703</v>
+        <v>97.690601535993395</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -660,20 +664,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>93.442140284043703</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>94.815248890503696</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1">
-      <c r="A11" s="5">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="C12" s="7">
         <v>97.26022888</v>
       </c>
     </row>

--- a/67321.xlsx
+++ b/67321.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66611D4-77A9-864C-98A5-A837BF9D10F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD59061-661D-9E47-90C9-EC553F2A50AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="9700" windowWidth="21560" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
+    <workbookView xWindow="1380" yWindow="2820" windowWidth="21560" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+ lag1+PCA (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC12942-6A22-6943-9F45-FF291F117E2B}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -590,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>74.163840790727605</v>
+        <v>71.550196435691205</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,7 +608,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>95.123913938170503</v>
+        <v>94.864480171692904</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -612,7 +619,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>97.690601535993395</v>
+        <v>96.131891332527104</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -623,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="3">
-        <v>97.3029684168079</v>
+        <v>96.136086308924206</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -634,7 +641,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="3">
-        <v>92.061861873820902</v>
+        <v>90.313239586760503</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -645,7 +652,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>69.733702040089099</v>
+        <v>69.781725315391697</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -656,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>97.690601535993395</v>
+        <v>89.384114536514403</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -667,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>93.442140284043703</v>
+        <v>95.496711032342702</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -678,7 +685,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>94.815248890503696</v>
+        <v>95.4664193060201</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
@@ -689,7 +696,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>97.26022888</v>
+        <v>97.665839938404105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C3:C12)</f>
+        <v>89.679070396426894</v>
       </c>
     </row>
   </sheetData>

--- a/67321.xlsx
+++ b/67321.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD59061-661D-9E47-90C9-EC553F2A50AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B97951-B06C-D84F-B9AC-8E1CCBDFB509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2820" windowWidth="21560" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
+    <workbookView xWindow="10300" yWindow="9760" windowWidth="21560" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>Avg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree Regression+feature selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,9 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC12942-6A22-6943-9F45-FF291F117E2B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -688,24 +689,35 @@
         <v>95.4664193060201</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>96.116233891006303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C13" s="7">
         <v>97.665839938404105</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <f>AVERAGE(C3:C12)</f>
-        <v>89.679070396426894</v>
+      <c r="C14">
+        <f>AVERAGE(C3:C13)</f>
+        <v>90.264267077752294</v>
       </c>
     </row>
   </sheetData>

--- a/67321.xlsx
+++ b/67321.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B97951-B06C-D84F-B9AC-8E1CCBDFB509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603D5C16-9728-3F4E-AB4F-B756FB43AA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="9760" windowWidth="21560" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
+    <workbookView xWindow="4280" yWindow="1620" windowWidth="21560" windowHeight="16240" xr2:uid="{6B0BC689-C312-CA48-AB33-3093EC2C3F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>Decision Tree Regression+feature selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Regression+PCA(18)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC12942-6A22-6943-9F45-FF291F117E2B}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -606,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>94.864480171692904</v>
+        <v>80.115493957702597</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -617,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>96.131891332527104</v>
+        <v>94.864480171692904</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -628,10 +632,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>96.136086308924206</v>
+        <v>96.131891332527104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -639,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>90.313239586760503</v>
+        <v>96.136086308924206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -650,10 +654,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3">
-        <v>69.781725315391697</v>
+        <v>90.313239586760503</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -661,10 +665,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>89.384114536514403</v>
+        <v>69.781725315391697</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -672,10 +676,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>95.496711032342702</v>
+        <v>89.384114536514403</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -683,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>95.4664193060201</v>
+        <v>95.496711032342702</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -694,30 +698,41 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>95.4664193060201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>96.116233891006303</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
-      <c r="A13" s="5">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C14" s="7">
         <v>97.665839938404105</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:3">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <f>AVERAGE(C3:C13)</f>
-        <v>90.264267077752294</v>
+      <c r="C15">
+        <f>AVERAGE(C3:C14)</f>
+        <v>89.418535984414802</v>
       </c>
     </row>
   </sheetData>
